--- a/Background/general.xlsx
+++ b/Background/general.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="13830" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="offer attractiveness" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>motivation</a:t>
+            <a:t>pp_motivation</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
         </a:p>
@@ -3725,7 +3725,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>experience index previous period</a:t>
+            <a:t>experience index </a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
         </a:p>
@@ -5660,8 +5660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O60" sqref="O60"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Background/general.xlsx
+++ b/Background/general.xlsx
@@ -4,15 +4,89 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="13830" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="13830" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="offer attractiveness" sheetId="1" r:id="rId1"/>
     <sheet name="success value" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="curves" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>time with account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curve35: 产品2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curve36: 产品3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curve37: 产品4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curve38: 除大学医院，中日医院，人民医院的产品1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curve39: 大学医院，中日医院，人民医院的产品1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meeting with team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curve7:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sales training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curve17:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">admin work </t>
+  </si>
+  <si>
+    <t>curve18:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kpi analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curve8:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -63,11 +137,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4350,8 +4427,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>566058</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>127907</xdr:rowOff>
     </xdr:to>
@@ -4363,7 +4440,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7478487" y="3676650"/>
-          <a:ext cx="631371" cy="642257"/>
+          <a:ext cx="1055913" cy="642257"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4404,7 +4481,7 @@
                 <a:srgbClr val="B4201C"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>0.6</a:t>
+            <a:t>0.75</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
             <a:solidFill>
@@ -4554,7 +4631,7 @@
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t>0.35</a:t>
+            <a:t>0.2</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
             <a:solidFill>
@@ -4930,7 +5007,7 @@
                 <a:srgbClr val="B4201C"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>0.35</a:t>
+            <a:t>0.3</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
             <a:solidFill>
@@ -5004,7 +5081,7 @@
                 <a:srgbClr val="B4201C"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>0.65</a:t>
+            <a:t>0.7</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
             <a:solidFill>
@@ -7222,55 +7299,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>511969</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247159</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="直接连接符 38"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3964782" y="4429126"/>
-          <a:ext cx="425752" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>154782</xdr:rowOff>
@@ -7289,55 +7317,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3976688" y="3488532"/>
-          <a:ext cx="425752" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>259065</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直接连接符 36"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3976688" y="2643187"/>
           <a:ext cx="425752" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -7491,8 +7470,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7502,7 +7481,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3976688" y="1762125"/>
-          <a:ext cx="0" cy="2667000"/>
+          <a:ext cx="0" cy="1738313"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7559,6 +7538,1115 @@
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="7" name="TextBox 6"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4152900" y="3393282"/>
+            <a:ext cx="2142000" cy="612000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>total revenue</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="TextBox 28"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6405562" y="3464720"/>
+            <a:ext cx="718915" cy="532713"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:schemeClr val="bg1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="B4201C"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>0.6</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="B4201C"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直接连接符 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3595688" y="2869407"/>
+          <a:ext cx="361950" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>641880</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>53182</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8167689" y="4107657"/>
+          <a:ext cx="2142066" cy="612775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>product</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t> knowledge</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>116682</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>187060</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>60324</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4260057" y="3281362"/>
+          <a:ext cx="2142066" cy="612775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>team capability</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>195263</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>164306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>164306</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接连接符 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6410326" y="3498056"/>
+          <a:ext cx="1328737" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>154782</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>154782</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接连接符 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7750970" y="2976563"/>
+          <a:ext cx="0" cy="1297781"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>559593</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>629972</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>148431</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8155781" y="2702719"/>
+          <a:ext cx="2142066" cy="612775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>motivation</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>641880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>29369</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextBox 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8167689" y="3417094"/>
+          <a:ext cx="2142066" cy="612775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>sales</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t> skills</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361727</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>8840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="TextBox 32"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6548437" y="3143252"/>
+          <a:ext cx="718915" cy="532713"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="bg1">
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="B4201C"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0.4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="B4201C"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>580533</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直接连接符 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7750969" y="2988469"/>
+          <a:ext cx="425752" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>592439</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直接连接符 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7762875" y="3631407"/>
+          <a:ext cx="425752" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>580533</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直接连接符 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7750969" y="4250532"/>
+          <a:ext cx="425752" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>511969</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247159</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接连接符 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3940969" y="4552951"/>
+          <a:ext cx="420990" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>259065</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接连接符 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3952875" y="3583782"/>
+          <a:ext cx="420990" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>259065</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直接连接符 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3952875" y="2714624"/>
+          <a:ext cx="420990" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>511968</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247158</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接连接符 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3940968" y="1821656"/>
+          <a:ext cx="420990" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>21431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>132291</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="TextBox 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="2593181"/>
+          <a:ext cx="2123016" cy="711994"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>success value</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直接连接符 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3952875" y="1809750"/>
+          <a:ext cx="0" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>92869</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>302196</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>52406</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="34" name="组合 33"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4207669" y="1650206"/>
+          <a:ext cx="2952527" cy="631050"/>
+          <a:chOff x="4152900" y="3393282"/>
+          <a:chExt cx="2971577" cy="612000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="TextBox 34"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7613,7 +8701,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="TextBox 28"/>
+          <xdr:cNvPr id="36" name="TextBox 35"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7688,12 +8776,12 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直接连接符 29"/>
+        <xdr:cNvPr id="37" name="直接连接符 36"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3595688" y="2869407"/>
+          <a:off x="3571875" y="2950369"/>
           <a:ext cx="361950" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -7737,20 +8825,20 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="35" name="组合 34"/>
+        <xdr:cNvPr id="38" name="组合 37"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4236244" y="2426494"/>
-          <a:ext cx="3043015" cy="612000"/>
+          <a:off x="4207669" y="2493169"/>
+          <a:ext cx="3023965" cy="631050"/>
           <a:chOff x="4129088" y="4188619"/>
           <a:chExt cx="3043015" cy="612000"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="TextBox 7"/>
+          <xdr:cNvPr id="39" name="TextBox 38"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7801,7 +8889,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="TextBox 30"/>
+          <xdr:cNvPr id="40" name="TextBox 39"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7876,13 +8964,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="TextBox 27"/>
+        <xdr:cNvPr id="41" name="TextBox 40"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8167689" y="4107657"/>
-          <a:ext cx="2142066" cy="612775"/>
+          <a:off x="8115301" y="4221957"/>
+          <a:ext cx="2127779" cy="631825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7946,13 +9034,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="42" name="TextBox 41"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4260057" y="3281362"/>
-          <a:ext cx="2142066" cy="612775"/>
+          <a:off x="4231482" y="3371849"/>
+          <a:ext cx="2127778" cy="631825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8012,13 +9100,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直接连接符 22"/>
+        <xdr:cNvPr id="43" name="直接连接符 42"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6410326" y="3498056"/>
-          <a:ext cx="1328737" cy="0"/>
+          <a:off x="6367463" y="3593306"/>
+          <a:ext cx="1319212" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8061,13 +9149,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直接连接符 15"/>
+        <xdr:cNvPr id="44" name="直接连接符 43"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7750970" y="2976563"/>
-          <a:ext cx="0" cy="1297781"/>
+          <a:off x="7698582" y="3057525"/>
+          <a:ext cx="0" cy="1335881"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8110,13 +9198,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="TextBox 25"/>
+        <xdr:cNvPr id="45" name="TextBox 44"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8155781" y="2702719"/>
-          <a:ext cx="2142066" cy="612775"/>
+          <a:off x="8103393" y="2778919"/>
+          <a:ext cx="2127779" cy="627062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8176,13 +9264,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="TextBox 26"/>
+        <xdr:cNvPr id="46" name="TextBox 45"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8167689" y="3417094"/>
-          <a:ext cx="2142066" cy="612775"/>
+          <a:off x="8115301" y="3512344"/>
+          <a:ext cx="2127779" cy="631825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8246,13 +9334,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="TextBox 31"/>
+        <xdr:cNvPr id="47" name="TextBox 46"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6572251" y="3190876"/>
-          <a:ext cx="718915" cy="532713"/>
+          <a:off x="6529388" y="3281363"/>
+          <a:ext cx="714153" cy="547001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8320,20 +9408,20 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="34" name="组合 33"/>
+        <xdr:cNvPr id="48" name="组合 47"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4248149" y="4148137"/>
-          <a:ext cx="2971579" cy="593725"/>
+          <a:off x="4219574" y="4262437"/>
+          <a:ext cx="2952529" cy="612775"/>
           <a:chOff x="4224337" y="1481136"/>
           <a:chExt cx="2971579" cy="593725"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="TextBox 3"/>
+          <xdr:cNvPr id="49" name="TextBox 48"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8384,7 +9472,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="33" name="TextBox 32"/>
+          <xdr:cNvPr id="50" name="TextBox 49"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8459,12 +9547,12 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直接连接符 39"/>
+        <xdr:cNvPr id="51" name="直接连接符 50"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7750969" y="2988469"/>
+          <a:off x="7698581" y="3069431"/>
           <a:ext cx="425752" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -8508,12 +9596,12 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直接连接符 40"/>
+        <xdr:cNvPr id="52" name="直接连接符 51"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7762875" y="3631407"/>
+          <a:off x="7710487" y="3731419"/>
           <a:ext cx="425752" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -8557,12 +9645,12 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直接连接符 41"/>
+        <xdr:cNvPr id="53" name="直接连接符 52"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7750969" y="4250532"/>
+          <a:off x="7698581" y="4369594"/>
           <a:ext cx="425752" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -8923,8 +10011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AF40" sqref="AF40"/>
+    <sheetView topLeftCell="A34" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -8943,8 +10031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8967,4 +10055,236 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="68.75" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-20</v>
+      </c>
+      <c r="D2" s="2">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>-20</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>-20</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>46</v>
+      </c>
+      <c r="E5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>-20</v>
+      </c>
+      <c r="D6">
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>-10</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>-2</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>-5</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>1.5</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>